--- a/municipal/ENG/Hotels/Guests/Samtskhe-Javakheti/Adigeni Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Samtskhe-Javakheti/Adigeni Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Samtskhe-Javakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\4.4 Guests\Samtskhe-Javakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -118,6 +115,9 @@
       <t xml:space="preserve"> by country and purpose of arrival in Adigeni  Municipality</t>
     </r>
   </si>
+  <si>
+    <t>(person)</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +207,12 @@
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -333,36 +339,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -390,7 +366,37 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -690,14 +696,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -707,13 +713,13 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -771,18 +777,18 @@
       <c r="BI2" s="14"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -840,19 +846,19 @@
       <c r="BI3" s="14"/>
     </row>
     <row r="4" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -911,14 +917,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="50">
         <v>2010</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -977,7 +983,7 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>230</v>
@@ -986,13 +992,13 @@
         <v>230</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1052,7 +1058,7 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1121,13 +1127,13 @@
         <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1187,7 +1193,7 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>52</v>
@@ -1196,13 +1202,13 @@
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1262,7 +1268,7 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1322,7 +1328,7 @@
     </row>
     <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>14</v>
@@ -1331,13 +1337,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1397,7 +1403,7 @@
     </row>
     <row r="12" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>30</v>
@@ -1406,13 +1412,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1472,22 +1478,22 @@
     </row>
     <row r="13" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="49">
+        <v>9</v>
+      </c>
+      <c r="B13" s="39">
         <v>8</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="39">
         <v>8</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>15</v>
+      <c r="D13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -1546,14 +1552,14 @@
       <c r="BI13" s="25"/>
     </row>
     <row r="14" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="A14" s="41">
         <v>2011</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1612,22 +1618,22 @@
     </row>
     <row r="15" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1584</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1576</v>
+      </c>
+      <c r="D15" s="33">
         <v>8</v>
       </c>
-      <c r="B15" s="42">
-        <v>1584</v>
-      </c>
-      <c r="C15" s="42">
-        <v>1576</v>
-      </c>
-      <c r="D15" s="43">
-        <v>8</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>15</v>
+      <c r="E15" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -1687,7 +1693,7 @@
     </row>
     <row r="16" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1764,15 +1770,15 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10">
         <v>114</v>
@@ -1781,18 +1787,18 @@
         <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10">
         <v>14</v>
@@ -1810,19 +1816,19 @@
       <c r="C20" s="10">
         <v>14</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>15</v>
+      <c r="D20" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="10">
         <v>82</v>
@@ -1830,69 +1836,69 @@
       <c r="C21" s="10">
         <v>82</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>15</v>
+      <c r="D21" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="46">
+        <v>9</v>
+      </c>
+      <c r="B22" s="36">
         <v>18</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="36">
         <v>18</v>
       </c>
-      <c r="D22" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>15</v>
+      <c r="D22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="41">
         <v>2012</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="42">
+        <v>7</v>
+      </c>
+      <c r="B24" s="32">
         <v>1995</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="32">
         <v>1926</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="32">
         <v>40</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="33">
         <v>25</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1917,12 +1923,12 @@
         <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="10">
         <v>75</v>
@@ -1934,7 +1940,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2">
         <v>4</v>
@@ -1942,7 +1948,7 @@
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1952,7 +1958,7 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="10">
         <v>18</v>
@@ -1961,10 +1967,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2">
         <v>4</v>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="10">
         <v>33</v>
@@ -1984,65 +1990,65 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="39">
+        <v>24</v>
+      </c>
+      <c r="C31" s="39">
+        <v>14</v>
+      </c>
+      <c r="D31" s="39">
         <v>10</v>
       </c>
-      <c r="B31" s="49">
-        <v>24</v>
-      </c>
-      <c r="C31" s="49">
-        <v>14</v>
-      </c>
-      <c r="D31" s="49">
-        <v>10</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>15</v>
+      <c r="E31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="41">
         <v>2013</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="33">
+        <v>714</v>
+      </c>
+      <c r="C33" s="33">
+        <v>706</v>
+      </c>
+      <c r="D33" s="33">
         <v>8</v>
       </c>
-      <c r="B33" s="43">
-        <v>714</v>
-      </c>
-      <c r="C33" s="43">
-        <v>706</v>
-      </c>
-      <c r="D33" s="43">
-        <v>8</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>15</v>
+      <c r="E33" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2064,15 +2070,15 @@
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
         <v>72</v>
@@ -2081,18 +2087,18 @@
         <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2102,7 +2108,7 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2">
         <v>33</v>
@@ -2111,18 +2117,18 @@
         <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="2">
         <v>31</v>
@@ -2131,68 +2137,68 @@
         <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="49">
+        <v>9</v>
+      </c>
+      <c r="B40" s="39">
         <v>8</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="39">
         <v>8</v>
       </c>
-      <c r="D40" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>15</v>
+      <c r="D40" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
+      <c r="A41" s="41">
         <v>2014</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="43">
+        <v>7</v>
+      </c>
+      <c r="B42" s="33">
         <v>501</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="33">
         <v>497</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="33">
         <v>4</v>
       </c>
-      <c r="E42" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>15</v>
+      <c r="E42" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2214,15 +2220,15 @@
         <v>4</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="2">
         <v>108</v>
@@ -2231,18 +2237,18 @@
         <v>108</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2252,7 +2258,7 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2">
         <v>14</v>
@@ -2261,18 +2267,18 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2">
         <v>89</v>
@@ -2281,68 +2287,68 @@
         <v>89</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="49">
+        <v>9</v>
+      </c>
+      <c r="B49" s="39">
         <v>5</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="39">
         <v>5</v>
       </c>
-      <c r="D49" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>15</v>
+      <c r="D49" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
+      <c r="A50" s="41">
         <v>2015</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="42">
+        <v>7</v>
+      </c>
+      <c r="B51" s="32">
         <v>1733</v>
       </c>
-      <c r="C51" s="42">
+      <c r="C51" s="32">
         <v>1733</v>
       </c>
-      <c r="D51" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="44" t="s">
-        <v>15</v>
+      <c r="D51" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2361,18 +2367,18 @@
         <v>1449</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10">
         <v>284</v>
@@ -2381,18 +2387,18 @@
         <v>284</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2402,7 +2408,7 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="10">
         <v>15</v>
@@ -2411,18 +2417,18 @@
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="10">
         <v>257</v>
@@ -2431,68 +2437,68 @@
         <v>257</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="49">
+        <v>9</v>
+      </c>
+      <c r="B58" s="39">
         <v>12</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="39">
         <v>12</v>
       </c>
-      <c r="D58" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="49" t="s">
-        <v>15</v>
+      <c r="D58" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="34">
+      <c r="A59" s="41">
         <v>2016</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="42">
+        <v>7</v>
+      </c>
+      <c r="B60" s="32">
         <v>2981</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="32">
         <v>2835</v>
       </c>
-      <c r="D60" s="42">
+      <c r="D60" s="32">
         <v>95</v>
       </c>
-      <c r="E60" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="43">
+      <c r="E60" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="33">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2514,7 +2520,7 @@
         <v>45</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="2">
         <v>38</v>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>316</v>
@@ -2534,7 +2540,7 @@
         <v>50</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2">
         <v>13</v>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2552,7 +2558,7 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="10">
         <v>48</v>
@@ -2564,7 +2570,7 @@
         <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2">
         <v>5</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10">
         <v>232</v>
@@ -2584,7 +2590,7 @@
         <v>29</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" s="2">
         <v>8</v>
@@ -2592,57 +2598,57 @@
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="46">
+        <v>9</v>
+      </c>
+      <c r="B67" s="36">
         <v>36</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="36">
         <v>28</v>
       </c>
-      <c r="D67" s="46">
+      <c r="D67" s="36">
         <v>8</v>
       </c>
-      <c r="E67" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>15</v>
+      <c r="E67" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="34">
+      <c r="A68" s="41">
         <v>2017</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="42">
+        <v>7</v>
+      </c>
+      <c r="B69" s="32">
         <v>3220</v>
       </c>
-      <c r="C69" s="42">
+      <c r="C69" s="32">
         <v>3080</v>
       </c>
-      <c r="D69" s="42">
+      <c r="D69" s="32">
         <v>88</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="33">
         <v>40</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2672,7 +2678,7 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="10">
         <v>572</v>
@@ -2684,7 +2690,7 @@
         <v>40</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
@@ -2692,7 +2698,7 @@
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="10">
         <v>153</v>
@@ -2714,7 +2720,7 @@
         <v>23</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
@@ -2722,7 +2728,7 @@
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="10">
         <v>361</v>
@@ -2734,45 +2740,45 @@
         <v>14</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="49">
+        <v>9</v>
+      </c>
+      <c r="B76" s="39">
         <v>58</v>
       </c>
-      <c r="C76" s="49">
+      <c r="C76" s="39">
         <v>55</v>
       </c>
-      <c r="D76" s="49">
+      <c r="D76" s="39">
         <v>3</v>
       </c>
-      <c r="E76" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="48" t="s">
-        <v>15</v>
+      <c r="E76" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34">
+      <c r="A77" s="41">
         <v>2018</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9">
         <v>3805</v>
@@ -2792,7 +2798,7 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2822,7 +2828,7 @@
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="10">
         <v>491</v>
@@ -2831,18 +2837,18 @@
         <v>471</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" s="10">
         <v>20</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2852,7 +2858,7 @@
     </row>
     <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="10">
         <v>129</v>
@@ -2861,18 +2867,18 @@
         <v>129</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10">
         <v>301</v>
@@ -2881,68 +2887,68 @@
         <v>281</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84" s="10">
         <v>20</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="46">
+        <v>9</v>
+      </c>
+      <c r="B85" s="36">
         <v>61</v>
       </c>
-      <c r="C85" s="46">
+      <c r="C85" s="36">
         <v>61</v>
       </c>
-      <c r="D85" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="48" t="s">
-        <v>15</v>
+      <c r="D85" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="34">
+      <c r="A86" s="41">
         <v>2019</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="42">
+        <v>7</v>
+      </c>
+      <c r="B87" s="32">
         <v>3333</v>
       </c>
-      <c r="C87" s="42">
+      <c r="C87" s="32">
         <v>2856</v>
       </c>
-      <c r="D87" s="42">
+      <c r="D87" s="32">
         <v>201</v>
       </c>
-      <c r="E87" s="42">
+      <c r="E87" s="32">
         <v>255</v>
       </c>
-      <c r="F87" s="43">
+      <c r="F87" s="33">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2967,12 +2973,12 @@
         <v>230</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="10">
         <v>344</v>
@@ -2992,7 +2998,7 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -3002,7 +3008,7 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="10">
         <v>97</v>
@@ -3022,7 +3028,7 @@
     </row>
     <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10">
         <v>219</v>
@@ -3037,62 +3043,62 @@
         <v>20</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="46">
+        <v>9</v>
+      </c>
+      <c r="B94" s="36">
         <v>28</v>
       </c>
-      <c r="C94" s="46">
+      <c r="C94" s="36">
         <v>28</v>
       </c>
-      <c r="D94" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="48" t="s">
-        <v>15</v>
+      <c r="D94" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="34">
+      <c r="A95" s="41">
         <v>2020</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="43">
+        <v>7</v>
+      </c>
+      <c r="B96" s="33">
         <v>725</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C96" s="33">
         <v>581</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="33">
         <v>94</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="33">
         <v>25</v>
       </c>
-      <c r="F96" s="43">
+      <c r="F96" s="33">
         <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3122,7 +3128,7 @@
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="2">
         <v>1</v>
@@ -3131,18 +3137,18 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3152,7 +3158,7 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="2">
         <v>1</v>
@@ -3161,88 +3167,88 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="48" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B103" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="34">
+      <c r="A104" s="41">
         <v>2021</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="42">
+        <v>7</v>
+      </c>
+      <c r="B105" s="32">
         <v>1516</v>
       </c>
-      <c r="C105" s="42">
+      <c r="C105" s="32">
         <v>1370</v>
       </c>
-      <c r="D105" s="42">
+      <c r="D105" s="32">
         <v>104</v>
       </c>
-      <c r="E105" s="42">
+      <c r="E105" s="32">
         <v>32</v>
       </c>
-      <c r="F105" s="42">
+      <c r="F105" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="10">
         <v>50</v>
@@ -3284,15 +3290,15 @@
         <v>4</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3302,7 +3308,7 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="10">
         <v>22</v>
@@ -3314,15 +3320,15 @@
         <v>4</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="10">
         <v>15</v>
@@ -3331,38 +3337,38 @@
         <v>15</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="46">
+        <v>9</v>
+      </c>
+      <c r="B112" s="36">
         <v>13</v>
       </c>
-      <c r="C112" s="46">
+      <c r="C112" s="36">
         <v>13</v>
       </c>
-      <c r="D112" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="50" t="s">
-        <v>15</v>
+      <c r="D112" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="40" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3411,12 +3417,12 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
@@ -3467,12 +3473,12 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
@@ -3523,12 +3529,12 @@
       <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -3579,12 +3585,12 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="42"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="42"/>
+      <c r="E140" s="42"/>
+      <c r="F140" s="42"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -3635,12 +3641,12 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+      <c r="A147" s="42"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
@@ -3691,12 +3697,12 @@
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="32"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -3747,12 +3753,12 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="32"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
+      <c r="A161" s="42"/>
+      <c r="B161" s="42"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="42"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
@@ -3803,12 +3809,12 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
+      <c r="A168" s="42"/>
+      <c r="B168" s="42"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
@@ -3859,12 +3865,12 @@
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="42"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
@@ -3915,12 +3921,12 @@
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="32"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
+      <c r="A182" s="42"/>
+      <c r="B182" s="42"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="42"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="42"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
@@ -3972,17 +3978,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A175:F175"/>
     <mergeCell ref="A182:F182"/>
     <mergeCell ref="A5:F5"/>
@@ -3999,6 +3994,17 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A95:F95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
